--- a/DSA/DataStructure.xlsx
+++ b/DSA/DataStructure.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinan\source\Skills\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD6B5B-3185-4DDB-A4B1-ABA1A711BDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B5919-D471-4DCF-9D29-427000121A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{0CE0D493-FE65-4A50-B951-6C1FCDBD178F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{0CE0D493-FE65-4A50-B951-6C1FCDBD178F}"/>
   </bookViews>
   <sheets>
     <sheet name="DS" sheetId="1" r:id="rId1"/>
-    <sheet name="Problems" sheetId="2" r:id="rId2"/>
-    <sheet name="Job" sheetId="3" r:id="rId3"/>
+    <sheet name="Microsoft" sheetId="2" r:id="rId2"/>
+    <sheet name="Wayfair" sheetId="4" r:id="rId3"/>
+    <sheet name="Task" sheetId="5" r:id="rId4"/>
+    <sheet name="Job" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Problems!$A$3:$AD$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Microsoft!$A$3:$AD$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Wayfair!$A$3:$AF$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="632">
   <si>
     <t>DS</t>
   </si>
@@ -699,600 +702,9 @@
     <t>list.IndexOf(20); || list.LastIndexOf(20);</t>
   </si>
   <si>
-    <t>Google1014</t>
-  </si>
-  <si>
-    <t>Amazon 998</t>
-  </si>
-  <si>
-    <t>Facebook 646 </t>
-  </si>
-  <si>
-    <t>Microsoft 643</t>
-  </si>
-  <si>
     <t>Apple 555</t>
   </si>
   <si>
-    <t>Bloomberg 501</t>
-  </si>
-  <si>
-    <t>Adobe 369</t>
-  </si>
-  <si>
-    <t>Uber 361</t>
-  </si>
-  <si>
-    <t>Oracle 266</t>
-  </si>
-  <si>
-    <t>ByteDance 216</t>
-  </si>
-  <si>
-    <t>Goldman Sachs 189</t>
-  </si>
-  <si>
-    <t>eBay 184</t>
-  </si>
-  <si>
-    <t>LinkedIn 135</t>
-  </si>
-  <si>
-    <t>Yahoo 132</t>
-  </si>
-  <si>
-    <t>VMware 123</t>
-  </si>
-  <si>
-    <t>Snapchat 107</t>
-  </si>
-  <si>
-    <t>Twitter 100</t>
-  </si>
-  <si>
-    <t>Salesforce 96</t>
-  </si>
-  <si>
-    <t>Cisco 90</t>
-  </si>
-  <si>
-    <t>Paypal 89</t>
-  </si>
-  <si>
-    <t>WalmartLabs 86</t>
-  </si>
-  <si>
-    <t>Citadel 68</t>
-  </si>
-  <si>
-    <t>Expedia 66</t>
-  </si>
-  <si>
-    <t>Yandex 58</t>
-  </si>
-  <si>
-    <t>Nvidia 56</t>
-  </si>
-  <si>
-    <t>Wish 56</t>
-  </si>
-  <si>
-    <t>Airbnb 52</t>
-  </si>
-  <si>
-    <t>Qualtrics 52</t>
-  </si>
-  <si>
-    <t>Atlassian 51</t>
-  </si>
-  <si>
-    <t>Zillow 49</t>
-  </si>
-  <si>
-    <t>Flipkart 47</t>
-  </si>
-  <si>
-    <t>Intuit 46</t>
-  </si>
-  <si>
-    <t>Roblox 45</t>
-  </si>
-  <si>
-    <t>Lyft 43</t>
-  </si>
-  <si>
-    <t>Nutanix 42</t>
-  </si>
-  <si>
-    <t>Visa 40</t>
-  </si>
-  <si>
-    <t>JPMorgan 38</t>
-  </si>
-  <si>
-    <t>Samsung 38</t>
-  </si>
-  <si>
-    <t>Tesla 36</t>
-  </si>
-  <si>
-    <t>DoorDash 34</t>
-  </si>
-  <si>
-    <t>Mathworks 33</t>
-  </si>
-  <si>
-    <t>Morgan Stanley 32</t>
-  </si>
-  <si>
-    <t>Quora 32</t>
-  </si>
-  <si>
-    <t>SAP 32</t>
-  </si>
-  <si>
-    <t>Pinterest 31</t>
-  </si>
-  <si>
-    <t>ServiceNow 31</t>
-  </si>
-  <si>
-    <t>Square 31</t>
-  </si>
-  <si>
-    <t>Splunk 29</t>
-  </si>
-  <si>
-    <t>Capital One 28</t>
-  </si>
-  <si>
-    <t>Citrix 28</t>
-  </si>
-  <si>
-    <t>Spotify 28</t>
-  </si>
-  <si>
-    <t>Wayfair 28</t>
-  </si>
-  <si>
-    <t>Yelp 28</t>
-  </si>
-  <si>
-    <t>Robinhood 27</t>
-  </si>
-  <si>
-    <t>Palantir Technologies 26</t>
-  </si>
-  <si>
-    <t>Shopee 26</t>
-  </si>
-  <si>
-    <t>tcs 26</t>
-  </si>
-  <si>
-    <t>Akuna Capital 25</t>
-  </si>
-  <si>
-    <t>Grab 25</t>
-  </si>
-  <si>
-    <t>Coupang 24</t>
-  </si>
-  <si>
-    <t>DE Shaw 24</t>
-  </si>
-  <si>
-    <t>Docusign 24</t>
-  </si>
-  <si>
-    <t>PocketGems 24</t>
-  </si>
-  <si>
-    <t>Databricks 23</t>
-  </si>
-  <si>
-    <t>IBM 23</t>
-  </si>
-  <si>
-    <t>Dropbox 22</t>
-  </si>
-  <si>
-    <t>Infosys 22</t>
-  </si>
-  <si>
-    <t>PayTM 22</t>
-  </si>
-  <si>
-    <t>Zenefits 22</t>
-  </si>
-  <si>
-    <t>Intel 21</t>
-  </si>
-  <si>
-    <t>Audible 20</t>
-  </si>
-  <si>
-    <t>Huawei 19</t>
-  </si>
-  <si>
-    <t>Qualcomm 19</t>
-  </si>
-  <si>
-    <t>Rubrik 19</t>
-  </si>
-  <si>
-    <t>tiktok 19</t>
-  </si>
-  <si>
-    <t>Twitch 19</t>
-  </si>
-  <si>
-    <t>Twilio 18</t>
-  </si>
-  <si>
-    <t>Two Sigma 18</t>
-  </si>
-  <si>
-    <t>DiDi 17</t>
-  </si>
-  <si>
-    <t>Swiggy 16</t>
-  </si>
-  <si>
-    <t>Accolite 15</t>
-  </si>
-  <si>
-    <t>Cruise Automation 15</t>
-  </si>
-  <si>
-    <t>FactSet 15</t>
-  </si>
-  <si>
-    <t>Tencent 15</t>
-  </si>
-  <si>
-    <t>AmericanExpress 14</t>
-  </si>
-  <si>
-    <t>Codenation 14</t>
-  </si>
-  <si>
-    <t>Hulu 14</t>
-  </si>
-  <si>
-    <t>Indeed 14</t>
-  </si>
-  <si>
-    <t>Karat 14</t>
-  </si>
-  <si>
-    <t>Dunzo 13</t>
-  </si>
-  <si>
-    <t>IXL 13</t>
-  </si>
-  <si>
-    <t>GoDaddy 12</t>
-  </si>
-  <si>
-    <t>Coursera 11</t>
-  </si>
-  <si>
-    <t>Netflix 11</t>
-  </si>
-  <si>
-    <t>Baidu 10</t>
-  </si>
-  <si>
-    <t>Cloudera 10</t>
-  </si>
-  <si>
-    <t>Houzz 10</t>
-  </si>
-  <si>
-    <t>Media.net 10</t>
-  </si>
-  <si>
-    <t>Reddit 10</t>
-  </si>
-  <si>
-    <t>Tableau 10</t>
-  </si>
-  <si>
-    <t>Zoho 10</t>
-  </si>
-  <si>
-    <t>AppDynamics 9</t>
-  </si>
-  <si>
-    <t>HBO 9</t>
-  </si>
-  <si>
-    <t>Asana 8</t>
-  </si>
-  <si>
-    <t>C3 IoT 8</t>
-  </si>
-  <si>
-    <t>Directi 8</t>
-  </si>
-  <si>
-    <t>Pony.ai 8</t>
-  </si>
-  <si>
-    <t>Postmates 8</t>
-  </si>
-  <si>
-    <t>Quip (Salesforce) 8</t>
-  </si>
-  <si>
-    <t>Sprinklr 8</t>
-  </si>
-  <si>
-    <t>Sumologic 8</t>
-  </si>
-  <si>
-    <t>Affirm 7</t>
-  </si>
-  <si>
-    <t>Alibaba 7</t>
-  </si>
-  <si>
-    <t>BlackRock 7</t>
-  </si>
-  <si>
-    <t>Bolt 7</t>
-  </si>
-  <si>
-    <t>Booking.com 7</t>
-  </si>
-  <si>
-    <t>Epic Systems 7</t>
-  </si>
-  <si>
-    <t>Pure Storage 7</t>
-  </si>
-  <si>
-    <t>Arista Networks 6</t>
-  </si>
-  <si>
-    <t>Box 6</t>
-  </si>
-  <si>
-    <t>Deutsche Bank 6</t>
-  </si>
-  <si>
-    <t>Hotstar 6</t>
-  </si>
-  <si>
-    <t>HRT 6</t>
-  </si>
-  <si>
-    <t>LiveRamp 6</t>
-  </si>
-  <si>
-    <t>TripAdvisor 6</t>
-  </si>
-  <si>
-    <t>Barclays 5</t>
-  </si>
-  <si>
-    <t>Cohesity 5</t>
-  </si>
-  <si>
-    <t>Groupon 5</t>
-  </si>
-  <si>
-    <t>GSN Games 5</t>
-  </si>
-  <si>
-    <t>Nagarro 5</t>
-  </si>
-  <si>
-    <t>Point72 5</t>
-  </si>
-  <si>
-    <t>Poshmark 5</t>
-  </si>
-  <si>
-    <t>Redfin 5</t>
-  </si>
-  <si>
-    <t>Riot Games 5</t>
-  </si>
-  <si>
-    <t>Virtu Financial 5</t>
-  </si>
-  <si>
-    <t>Zoom 5</t>
-  </si>
-  <si>
-    <t>Zynga 5</t>
-  </si>
-  <si>
-    <t>Airtel 4</t>
-  </si>
-  <si>
-    <t>Dataminr 4</t>
-  </si>
-  <si>
-    <t>MakeMyTrip 4</t>
-  </si>
-  <si>
-    <t>Mercari 4</t>
-  </si>
-  <si>
-    <t>Opendoor 4</t>
-  </si>
-  <si>
-    <t>Toptal 4</t>
-  </si>
-  <si>
-    <t>Works Applications 4</t>
-  </si>
-  <si>
-    <t>Zulily 4</t>
-  </si>
-  <si>
-    <t>Akamai 3</t>
-  </si>
-  <si>
-    <t>Alation 3</t>
-  </si>
-  <si>
-    <t>Dell 3</t>
-  </si>
-  <si>
-    <t>Duolingo 3</t>
-  </si>
-  <si>
-    <t>Electronic Arts 3</t>
-  </si>
-  <si>
-    <t>Evernote 3</t>
-  </si>
-  <si>
-    <t>Garena 3</t>
-  </si>
-  <si>
-    <t>Honeywell 3</t>
-  </si>
-  <si>
-    <t>Jane Street 3</t>
-  </si>
-  <si>
-    <t>MAQ Software 3</t>
-  </si>
-  <si>
-    <t>TripleByte 3</t>
-  </si>
-  <si>
-    <t>United Health Group 3</t>
-  </si>
-  <si>
-    <t>Activision 2</t>
-  </si>
-  <si>
-    <t>Blizzard 2</t>
-  </si>
-  <si>
-    <t>C3.ai 2</t>
-  </si>
-  <si>
-    <t>endurance 2</t>
-  </si>
-  <si>
-    <t>Fleetx 2</t>
-  </si>
-  <si>
-    <t>Helix 2</t>
-  </si>
-  <si>
-    <t>InMobi 2</t>
-  </si>
-  <si>
-    <t>JP Morgan 2</t>
-  </si>
-  <si>
-    <t>Lending Club 2</t>
-  </si>
-  <si>
-    <t>Machine Zone 2</t>
-  </si>
-  <si>
-    <t>MindTickle 2</t>
-  </si>
-  <si>
-    <t>NetEase 2</t>
-  </si>
-  <si>
-    <t>Netsuite 2</t>
-  </si>
-  <si>
-    <t>peak6 2</t>
-  </si>
-  <si>
-    <t>SoundHound 2</t>
-  </si>
-  <si>
-    <t>Startup 2</t>
-  </si>
-  <si>
-    <t>Turvo 2</t>
-  </si>
-  <si>
-    <t>UiPath 2</t>
-  </si>
-  <si>
-    <t>Vimeo 2</t>
-  </si>
-  <si>
-    <t>Zappos 2</t>
-  </si>
-  <si>
-    <t>23&amp;me 1</t>
-  </si>
-  <si>
-    <t>Activevideo 1</t>
-  </si>
-  <si>
-    <t>Aetion 1</t>
-  </si>
-  <si>
-    <t>Affinity 1</t>
-  </si>
-  <si>
-    <t>Ajira 1</t>
-  </si>
-  <si>
-    <t>Akuna 1</t>
-  </si>
-  <si>
-    <t>AllinCall 1</t>
-  </si>
-  <si>
-    <t>alphonso 1</t>
-  </si>
-  <si>
-    <t>APT Portfolio 1</t>
-  </si>
-  <si>
-    <t>AQR Capital Management LLC 1</t>
-  </si>
-  <si>
-    <t>Arcesium 1</t>
-  </si>
-  <si>
-    <t>Arista 1</t>
-  </si>
-  <si>
-    <t>Bloomreach 1</t>
-  </si>
-  <si>
-    <t>BNYMellon 1</t>
-  </si>
-  <si>
-    <t>Booking 1</t>
-  </si>
-  <si>
-    <t>Brillio 1</t>
-  </si>
-  <si>
-    <t>ByteDance(Toutiao) 1</t>
-  </si>
-  <si>
-    <t>CasaOne 1</t>
-  </si>
-  <si>
-    <t>Cashfree 1</t>
-  </si>
-  <si>
-    <t>Clari 1</t>
-  </si>
-  <si>
-    <t>Clutter 1</t>
-  </si>
-  <si>
     <t>codeagon 1</t>
   </si>
   <si>
@@ -1527,20 +939,1019 @@
     <t>ZScaler 1</t>
   </si>
   <si>
-    <t>Interview</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Applied</t>
+  </si>
+  <si>
+    <t>Magic Squares In Grid</t>
+  </si>
+  <si>
+    <t>Team Scores in Football Tournament</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Subdomain Visit Count</t>
+  </si>
+  <si>
+    <t>Last Person to Fit in the Bus</t>
+  </si>
+  <si>
+    <t>Tournament Winners</t>
+  </si>
+  <si>
+    <t>Employee Free Time</t>
+  </si>
+  <si>
+    <t>Alert Using Same Key-Card Three or More Times in a One Hour Period</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Design A Leaderboard</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Maximum Length of Repeated Subarray</t>
+  </si>
+  <si>
+    <t>Maximum Number of Balloons</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Meeting Scheduler</t>
+  </si>
+  <si>
+    <t>Best Sightseeing Pair</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Delete Characters to Make Fancy String</t>
+  </si>
+  <si>
+    <t>Longest Happy String</t>
+  </si>
+  <si>
+    <t>Largest Magic Square</t>
+  </si>
+  <si>
+    <t>Monthly Transactions I</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Truist</t>
+  </si>
+  <si>
+    <t>Stanup</t>
+  </si>
+  <si>
+    <t>DEV Call</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>Tiffin</t>
+  </si>
+  <si>
+    <t>Tidy Home</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>Dinnar</t>
+  </si>
+  <si>
+    <t>Prepare Bread</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Latrine</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Mihi</t>
+  </si>
+  <si>
+    <t>Yogi</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Mind</t>
+  </si>
+  <si>
+    <t>Affirmation</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
+  <si>
+    <t>Yog Nidra</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Checkup</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Morning Walk</t>
+  </si>
+  <si>
+    <t>Night Walk</t>
+  </si>
+  <si>
+    <t>Stretching</t>
+  </si>
+  <si>
+    <t>Gratefull</t>
+  </si>
+  <si>
+    <t>Sr#</t>
+  </si>
+  <si>
+    <t>TransUnion</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Work 1</t>
+  </si>
+  <si>
+    <t>Work 2</t>
+  </si>
+  <si>
+    <t>Work 3</t>
+  </si>
+  <si>
+    <t>Work 4</t>
+  </si>
+  <si>
+    <t>Skill 1</t>
+  </si>
+  <si>
+    <t>Skill 2</t>
+  </si>
+  <si>
+    <t>Skill 3</t>
+  </si>
+  <si>
+    <t>Skill 4</t>
+  </si>
+  <si>
+    <t>Skill 5</t>
+  </si>
+  <si>
+    <t>Skill 6</t>
+  </si>
+  <si>
+    <t>Skill 7</t>
+  </si>
+  <si>
+    <t>Skill 8</t>
+  </si>
+  <si>
+    <t>Skill 9</t>
+  </si>
+  <si>
+    <t>Skill 10</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Beverage</t>
+  </si>
+  <si>
+    <t>OpSec</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Wayfair</t>
+  </si>
+  <si>
+    <t>Recruiter</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1st Round</t>
+  </si>
+  <si>
+    <t>Karat</t>
+  </si>
+  <si>
+    <t>Interviewer</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Poornima</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Application Architect- Security</t>
+  </si>
+  <si>
+    <t>Software Engineer II- Storefront</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Software Engineer 4</t>
+  </si>
+  <si>
+    <t>LinkedIn IM</t>
+  </si>
+  <si>
+    <t>Phone Call</t>
+  </si>
+  <si>
+    <t>Shelly</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Array.Sort(matrix, (n1, n2) =&gt; n1[0] - n2[0]);</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>System design &amp; Coding</t>
+  </si>
+  <si>
+    <t>Mike, Ramesh, Thorin, Chris</t>
+  </si>
+  <si>
+    <t>GFT</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Core API</t>
+  </si>
+  <si>
+    <t>ClinicalInk</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>ABCSupply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneStream </t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Principal Software Engineer</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>1st Round done</t>
+  </si>
+  <si>
+    <t>Waiting Feedback</t>
+  </si>
+  <si>
+    <t>To Be Schedule</t>
+  </si>
+  <si>
+    <t>Recruiter Call Scheduled</t>
+  </si>
+  <si>
+    <t>Karolyn</t>
+  </si>
+  <si>
+    <t>2st Round</t>
+  </si>
+  <si>
+    <t>Technical Interview with team</t>
+  </si>
+  <si>
+    <t>Technical Interview with Manager</t>
+  </si>
+  <si>
+    <t>TrimbleMAPS</t>
+  </si>
+  <si>
+    <t>Amee</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>ByteDance</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>VMware</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>WalmartLabs</t>
+  </si>
+  <si>
+    <t>Citadel</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Qualtrics</t>
+  </si>
+  <si>
+    <t>Atlassian</t>
+  </si>
+  <si>
+    <t>Zillow</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>Nutanix</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>JPMorgan</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>DoorDash</t>
+  </si>
+  <si>
+    <t>Mathworks</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Quora</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Citrix</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>Palantir Technologies</t>
+  </si>
+  <si>
+    <t>Shopee</t>
+  </si>
+  <si>
+    <t>tcs</t>
+  </si>
+  <si>
+    <t>Akuna Capital</t>
+  </si>
+  <si>
+    <t>Grab</t>
+  </si>
+  <si>
+    <t>Coupang</t>
+  </si>
+  <si>
+    <t>DE Shaw</t>
+  </si>
+  <si>
+    <t>Docusign</t>
+  </si>
+  <si>
+    <t>PocketGems</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>PayTM</t>
+  </si>
+  <si>
+    <t>Zenefits</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Audible</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Qualcomm</t>
+  </si>
+  <si>
+    <t>Rubrik</t>
+  </si>
+  <si>
+    <t>tiktok</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Twilio</t>
+  </si>
+  <si>
+    <t>Two Sigma</t>
+  </si>
+  <si>
+    <t>DiDi</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>Accolite</t>
+  </si>
+  <si>
+    <t>Cruise Automation</t>
+  </si>
+  <si>
+    <t>FactSet</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>AmericanExpress</t>
+  </si>
+  <si>
+    <t>Codenation</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>Dunzo</t>
+  </si>
+  <si>
+    <t>IXL</t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Cloudera</t>
+  </si>
+  <si>
+    <t>Houzz</t>
+  </si>
+  <si>
+    <t>Media.net</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Zoho</t>
+  </si>
+  <si>
+    <t>AppDynamics</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>Asana</t>
+  </si>
+  <si>
+    <t>C3 IoT </t>
+  </si>
+  <si>
+    <t>Directi </t>
+  </si>
+  <si>
+    <t>Pony.ai </t>
+  </si>
+  <si>
+    <t>Postmates </t>
+  </si>
+  <si>
+    <t>Quip (Salesforce) </t>
+  </si>
+  <si>
+    <t>Sprinklr </t>
+  </si>
+  <si>
+    <t>Sumologic </t>
+  </si>
+  <si>
+    <t>Affirm </t>
+  </si>
+  <si>
+    <t>Alibaba </t>
+  </si>
+  <si>
+    <t>BlackRock </t>
+  </si>
+  <si>
+    <t>Bolt </t>
+  </si>
+  <si>
+    <t>Booking.com </t>
+  </si>
+  <si>
+    <t>Epic Systems </t>
+  </si>
+  <si>
+    <t>Pure Storage </t>
+  </si>
+  <si>
+    <t>Arista Networks </t>
+  </si>
+  <si>
+    <t>Box </t>
+  </si>
+  <si>
+    <t>Deutsche Bank </t>
+  </si>
+  <si>
+    <t>Hotstar </t>
+  </si>
+  <si>
+    <t>HRT </t>
+  </si>
+  <si>
+    <t>LiveRamp </t>
+  </si>
+  <si>
+    <t>TripAdvisor </t>
+  </si>
+  <si>
+    <t>Barclays </t>
+  </si>
+  <si>
+    <t>Cohesity </t>
+  </si>
+  <si>
+    <t>Groupon </t>
+  </si>
+  <si>
+    <t>GSN Games </t>
+  </si>
+  <si>
+    <t>Nagarro </t>
+  </si>
+  <si>
+    <t>Point72 </t>
+  </si>
+  <si>
+    <t>Poshmark </t>
+  </si>
+  <si>
+    <t>Redfin </t>
+  </si>
+  <si>
+    <t>Riot Games </t>
+  </si>
+  <si>
+    <t>Virtu Financial </t>
+  </si>
+  <si>
+    <t>Zoom </t>
+  </si>
+  <si>
+    <t>Zynga </t>
+  </si>
+  <si>
+    <t>Airtel </t>
+  </si>
+  <si>
+    <t>Dataminr </t>
+  </si>
+  <si>
+    <t>MakeMyTrip </t>
+  </si>
+  <si>
+    <t>Mercari </t>
+  </si>
+  <si>
+    <t>Opendoor </t>
+  </si>
+  <si>
+    <t>Toptal </t>
+  </si>
+  <si>
+    <t>Works Applications </t>
+  </si>
+  <si>
+    <t>Zulily </t>
+  </si>
+  <si>
+    <t>Akamai </t>
+  </si>
+  <si>
+    <t>Alation </t>
+  </si>
+  <si>
+    <t>Dell </t>
+  </si>
+  <si>
+    <t>Duolingo </t>
+  </si>
+  <si>
+    <t>Electronic Arts </t>
+  </si>
+  <si>
+    <t>Evernote </t>
+  </si>
+  <si>
+    <t>Garena </t>
+  </si>
+  <si>
+    <t>Honeywell </t>
+  </si>
+  <si>
+    <t>Jane Street </t>
+  </si>
+  <si>
+    <t>MAQ Software </t>
+  </si>
+  <si>
+    <t>TripleByte </t>
+  </si>
+  <si>
+    <t>United Health Group </t>
+  </si>
+  <si>
+    <t>Activision </t>
+  </si>
+  <si>
+    <t>Blizzard </t>
+  </si>
+  <si>
+    <t>C3.ai </t>
+  </si>
+  <si>
+    <t>endurance </t>
+  </si>
+  <si>
+    <t>Fleetx </t>
+  </si>
+  <si>
+    <t>Helix </t>
+  </si>
+  <si>
+    <t>InMobi </t>
+  </si>
+  <si>
+    <t>JP Morgan </t>
+  </si>
+  <si>
+    <t>Lending Club </t>
+  </si>
+  <si>
+    <t>Machine Zone </t>
+  </si>
+  <si>
+    <t>MindTickle </t>
+  </si>
+  <si>
+    <t>NetEase </t>
+  </si>
+  <si>
+    <t>Netsuite </t>
+  </si>
+  <si>
+    <t>peak6 </t>
+  </si>
+  <si>
+    <t>SoundHound </t>
+  </si>
+  <si>
+    <t>Startup </t>
+  </si>
+  <si>
+    <t>Turvo </t>
+  </si>
+  <si>
+    <t>UiPath </t>
+  </si>
+  <si>
+    <t>Vimeo </t>
+  </si>
+  <si>
+    <t>Zappos </t>
+  </si>
+  <si>
+    <t>23&amp;me </t>
+  </si>
+  <si>
+    <t>Activevideo </t>
+  </si>
+  <si>
+    <t>Aetion </t>
+  </si>
+  <si>
+    <t>Affinity </t>
+  </si>
+  <si>
+    <t>Ajira </t>
+  </si>
+  <si>
+    <t>Akuna </t>
+  </si>
+  <si>
+    <t>AllinCall </t>
+  </si>
+  <si>
+    <t>alphonso </t>
+  </si>
+  <si>
+    <t>APT Portfolio </t>
+  </si>
+  <si>
+    <t>AQR Capital Management LLC </t>
+  </si>
+  <si>
+    <t>Arcesium </t>
+  </si>
+  <si>
+    <t>Arista </t>
+  </si>
+  <si>
+    <t>Bloomreach </t>
+  </si>
+  <si>
+    <t>BNYMellon </t>
+  </si>
+  <si>
+    <t>Booking </t>
+  </si>
+  <si>
+    <t>Brillio </t>
+  </si>
+  <si>
+    <t>ByteDance(Toutiao) </t>
+  </si>
+  <si>
+    <t>CasaOne </t>
+  </si>
+  <si>
+    <t>Cashfree </t>
+  </si>
+  <si>
+    <t>Clari </t>
+  </si>
+  <si>
+    <t>Clutter </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,8 +1990,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,6 +2019,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1632,9 +2067,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1953,21 +2397,12 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="23.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="39.36328125" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" customWidth="1"/>
-    <col min="7" max="7" width="30.54296875" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="59.453125" customWidth="1"/>
-    <col min="10" max="10" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="55.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2454,7 +2889,7 @@
         <v>71</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>71</v>
+        <v>417</v>
       </c>
       <c r="AA14" t="s">
         <v>50</v>
@@ -2500,7 +2935,7 @@
   <dimension ref="A1:AD80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4308,1724 +4743,3064 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D894E42-578F-491D-BCD3-4511B52F5F27}">
-  <dimension ref="A1:C277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B5BBC-4861-4BFB-BDEA-26E5BF5567DA}">
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="103.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="12" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.08984375" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="12" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="103.90625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="5">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>69</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>56</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>252</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>718</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>759</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>1229</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>125</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>224</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>409</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>412</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>415</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>811</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>1405</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>1604</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>1957</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>1189</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>36</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>1895</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>840</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>85</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>210</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>1244</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>1193</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>1194</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>1204</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>1212</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AF33" xr:uid="{155B5BBC-4861-4BFB-BDEA-26E5BF5567DA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AF34">
+    <sortCondition ref="A5:A34"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" tooltip="Magic Squares In Grid" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{20C1A2C9-61A5-4E97-A3D2-263BBDD55B32}"/>
+    <hyperlink ref="B33" r:id="rId2" tooltip="Team Scores in Football Tournament" display="https://leetcode.com/problems/team-scores-in-football-tournament" xr:uid="{DAF8C6D2-DE61-49FC-8F3F-86EDFDA2D820}"/>
+    <hyperlink ref="B18" r:id="rId3" tooltip="Subdomain Visit Count" display="https://leetcode.com/problems/subdomain-visit-count" xr:uid="{F4026BC3-0935-4811-9A63-A90B2E3168A5}"/>
+    <hyperlink ref="B32" r:id="rId4" tooltip="Last Person to Fit in the Bus" display="https://leetcode.com/problems/last-person-to-fit-in-the-bus" xr:uid="{07E5ECB2-6039-474E-95F1-823E6971351F}"/>
+    <hyperlink ref="B31" r:id="rId5" tooltip="Tournament Winners" display="https://leetcode.com/problems/tournament-winners" xr:uid="{7A472EEC-1431-42CB-B909-5BD1B766466B}"/>
+    <hyperlink ref="B9" r:id="rId6" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{1165FCE5-6379-406D-8215-5E219D6AA282}"/>
+    <hyperlink ref="B21" r:id="rId7" tooltip="Alert Using Same Key-Card Three or More Times in a One Hour Period" display="https://leetcode.com/problems/alert-using-same-key-card-three-or-more-times-in-a-one-hour-period" xr:uid="{94853C33-43C6-4848-8BCF-FB7B66FA8F77}"/>
+    <hyperlink ref="B17" r:id="rId8" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{5EE6C5DD-27C7-4D1E-8632-707D2A0C1264}"/>
+    <hyperlink ref="B29" r:id="rId9" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{23B3F490-3428-459F-9D79-8E680A253DF7}"/>
+    <hyperlink ref="B19" r:id="rId10" tooltip="Longest Palindromic Substring" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{7A69CADA-1BD0-4C8F-8E37-ABBD3132863A}"/>
+    <hyperlink ref="B13" r:id="rId11" tooltip="Valid Palindrome" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{CF2154DB-2AE0-4C3D-8CFA-AAC0771A0892}"/>
+    <hyperlink ref="B8" r:id="rId12" tooltip="Maximum Length of Repeated Subarray" display="https://leetcode.com/problems/maximum-length-of-repeated-subarray" xr:uid="{06B4ABD1-4843-4173-960C-86B2D1D6AA11}"/>
+    <hyperlink ref="B23" r:id="rId13" tooltip="Maximum Number of Balloons" display="https://leetcode.com/problems/maximum-number-of-balloons" xr:uid="{C59F0971-554B-4B85-AF82-C56F47C4856E}"/>
+    <hyperlink ref="B27" r:id="rId14" tooltip="Maximal Rectangle" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{D10CE726-FC80-4343-BCCE-28566B0A8DC6}"/>
+    <hyperlink ref="B14" r:id="rId15" tooltip="Basic Calculator" display="https://leetcode.com/problems/basic-calculator" xr:uid="{4108BD85-FDA0-444B-A283-1FD5BF232544}"/>
+    <hyperlink ref="B11" r:id="rId16" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{E5F6D544-C94D-463E-8EB7-E18F59407EAD}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="Best Sightseeing Pair" display="https://leetcode.com/problems/best-sightseeing-pair" xr:uid="{AD0D04C6-A16F-4524-ACD2-B8E4C9BF316E}"/>
+    <hyperlink ref="B15" r:id="rId18" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{8AD606CA-6D53-4022-B0F7-00DD5AAD8AAC}"/>
+    <hyperlink ref="B16" r:id="rId19" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{ADF1863D-3959-4C9D-874A-FF874E514495}"/>
+    <hyperlink ref="B28" r:id="rId20" tooltip="Course Schedule II" display="https://leetcode.com/problems/course-schedule-ii" xr:uid="{2A8AFBD1-B1E7-4F70-B895-D16A8E4A44A9}"/>
+    <hyperlink ref="B6" r:id="rId21" tooltip="Merge Intervals" display="https://leetcode.com/problems/merge-intervals" xr:uid="{E3DED996-0B78-4445-BF00-194CF72D9386}"/>
+    <hyperlink ref="B7" r:id="rId22" tooltip="Meeting Rooms" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{5A866EC6-C802-455B-A1D5-D6D482CAB453}"/>
+    <hyperlink ref="B4" r:id="rId23" tooltip="Sqrt(x)" display="https://leetcode.com/problems/sqrtx" xr:uid="{47CFABF3-3D6F-4AE7-843A-DF44AF9AA484}"/>
+    <hyperlink ref="B5" r:id="rId24" tooltip="Two Sum" display="https://leetcode.com/problems/two-sum" xr:uid="{562BD354-663A-4F76-AEFE-7D72EF450CAA}"/>
+    <hyperlink ref="B24" r:id="rId25" tooltip="Valid Sudoku" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{867D43C7-972B-4DD4-A45A-1FC739A366D0}"/>
+    <hyperlink ref="B12" r:id="rId26" tooltip="Longest Substring Without Repeating Characters" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{D4EF5EF9-9D09-4E29-934E-F33BB231C2DF}"/>
+    <hyperlink ref="B22" r:id="rId27" tooltip="Delete Characters to Make Fancy String" display="https://leetcode.com/problems/delete-characters-to-make-fancy-string" xr:uid="{2CC9CF5A-D859-4AC6-9079-C1A90518F865}"/>
+    <hyperlink ref="B20" r:id="rId28" tooltip="Longest Happy String" display="https://leetcode.com/problems/longest-happy-string" xr:uid="{19648DE0-6536-4EB3-87AA-3AF464F67CC9}"/>
+    <hyperlink ref="B25" r:id="rId29" tooltip="Largest Magic Square" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{B6006518-ED76-45A2-8EA3-03EA31498543}"/>
+    <hyperlink ref="B30" r:id="rId30" tooltip="Monthly Transactions I" display="https://leetcode.com/problems/monthly-transactions-i" xr:uid="{777A02FB-B8CF-4AEC-AE45-831E31AD1995}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8F4EBB-30F6-439D-A7FF-AA89B3D26277}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="8"/>
+    <col min="4" max="4" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="15">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="16">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="16">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16">
+        <f>SUM(B1:B25)</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D894E42-578F-491D-BCD3-4511B52F5F27}">
+  <dimension ref="A1:M287"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="18">
+        <v>44483</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" t="s">
+        <v>440</v>
+      </c>
+      <c r="I6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" s="18">
+        <v>44498</v>
+      </c>
+      <c r="K6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" s="18">
+        <v>44487</v>
+      </c>
+      <c r="G7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="18">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="18">
+        <v>44494</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="18">
+        <v>44494</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F10" s="18">
+        <v>44494</v>
+      </c>
+      <c r="G10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" s="18">
+        <v>44495</v>
+      </c>
+      <c r="G11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="18">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" s="18">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="18">
+        <v>44496</v>
+      </c>
+      <c r="G14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F15" s="18">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B184" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B186" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B187" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B188" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B189" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B190" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B191" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B192" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B197" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B198" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B199" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B200" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B201" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B202" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B204" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B205" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B206" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B207" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B208" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B209" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B210" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B211" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B212" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B213" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B214" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B215" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B216" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B217" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B218" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B219" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B220" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B221" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B222" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B223" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B224" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B225" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B226" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B227" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B228" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B229" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B230" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B231" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B232" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B233" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B234" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B235" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B236" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B237" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B238" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B239" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B240" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B241" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B242" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B243" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B244" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B245" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B246" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B247" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B248" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B249" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B250" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B251" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B252" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B253" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B254" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B255" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B256" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B257" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B258" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B259" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B260" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B261" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B262" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B263" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B264" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B265" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B266" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B267" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B268" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B269" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B270" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B271" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B272" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B273" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B274" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B275" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B276" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B277" s="8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B278" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B279" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B280" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B281" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B282" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B283" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B284" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B285" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B286" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B287" s="8" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" s="12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="12" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/company/google/" xr:uid="{0FAC680C-C3D9-4B15-80E6-6526ACF9F9A8}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/company/amazon/" xr:uid="{D73B5257-3955-48BD-AADF-FAFC530C3518}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/company/facebook/" xr:uid="{939FFC28-48C6-424A-B3C8-32DA17FD331A}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/company/microsoft/" xr:uid="{EC65BC37-373D-48EE-81FC-13596F98BD98}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode.com/company/apple/" xr:uid="{FC788DFE-03E3-42EA-A5CD-70D9687DD279}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode.com/company/bloomberg/" xr:uid="{A5D2F6B8-D640-4465-9A59-BF0F1AB919BA}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode.com/company/adobe/" xr:uid="{67C28EB9-4619-4E67-BAE2-32A4368A0125}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode.com/company/uber/" xr:uid="{80726809-8B54-4BBD-B674-6FEF34C57A05}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode.com/company/oracle/" xr:uid="{C31D0C7B-5D71-4F43-A83C-03FD080FD160}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode.com/company/bytedance/" xr:uid="{676142AE-CA1D-452C-81FB-F358425225CD}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://leetcode.com/company/goldman-sachs/" xr:uid="{BAF08C1B-B259-43B5-9559-760C5F9CC4ED}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://leetcode.com/company/ebay/" xr:uid="{DD5B8BA3-1CD7-4516-A2EC-D7B61BDD1D4C}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/company/linkedin/" xr:uid="{A125CA1A-3BA7-4818-B3CC-8DED718ECF4A}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://leetcode.com/company/yahoo/" xr:uid="{44ED8EA6-B63C-4C44-BA0A-D42A793C2A09}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://leetcode.com/company/vmware/" xr:uid="{289A71D8-5465-4FA4-9B9A-E94EA9799EB1}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://leetcode.com/company/snapchat/" xr:uid="{21DD7C1C-285E-4511-9378-3CC3712E8B66}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://leetcode.com/company/twitter/" xr:uid="{02C81E6A-B8B9-452F-82B0-9E9DE7567518}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://leetcode.com/company/salesforce/" xr:uid="{A1C31455-3CD7-4AA5-9712-0A551C1CAA21}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://leetcode.com/company/cisco/" xr:uid="{EA499035-6D5D-4878-A78D-7980375167DA}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://leetcode.com/company/paypal/" xr:uid="{592B6796-3A70-43AD-A7A2-81A33DABFE84}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://leetcode.com/company/walmart-labs/" xr:uid="{0CFFD046-E980-4817-B46B-A16DF37E9E52}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://leetcode.com/company/citadel/" xr:uid="{D32F1953-6F7A-4385-86E7-D044B190A567}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://leetcode.com/company/expedia/" xr:uid="{EA21EAD7-03B5-4FEE-9E3E-6AA73B9EF722}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://leetcode.com/company/yandex/" xr:uid="{3381D22D-D181-4BD9-A620-21670358802A}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://leetcode.com/company/nvidia/" xr:uid="{C99ED49E-E628-450B-93BA-B012F840633E}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://leetcode.com/company/wish/" xr:uid="{0275302A-A564-4E3C-9342-8E44FB1518F4}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://leetcode.com/company/airbnb/" xr:uid="{A0F103AC-4FF2-46C8-A49E-3B9C00671A4C}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://leetcode.com/company/qualtrics/" xr:uid="{EEDF2A07-E54B-427F-88AD-84868A88009D}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://leetcode.com/company/atlassian/" xr:uid="{3803BAAC-EDC2-4B31-8E0E-DCEB6F66412D}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://leetcode.com/company/zillow/" xr:uid="{9DD85FF2-E882-4F96-8D56-4088BFF9E76B}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://leetcode.com/company/flipkart/" xr:uid="{96752569-8DD9-40E8-8F36-1806C05B1265}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://leetcode.com/company/intuit/" xr:uid="{F71B6E7C-03EB-47F2-BF4B-D382BEC343AC}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://leetcode.com/company/roblox/" xr:uid="{3BD72DC0-2B77-4456-8F54-33AB0D1A3F76}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://leetcode.com/company/lyft/" xr:uid="{74C7FAED-0199-4CB7-AFEF-CF4D3FBAD331}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://leetcode.com/company/nutanix/" xr:uid="{BA6566B5-1084-475D-8C67-1343942D25C8}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://leetcode.com/company/visa/" xr:uid="{9A486B37-373F-4325-8B2D-5515D2C02E2E}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://leetcode.com/company/jpmorgan/" xr:uid="{A21DA419-30D1-47FA-9692-FAE7875173BA}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://leetcode.com/company/samsung/" xr:uid="{D27700F3-E9A5-4D6A-B025-88A10D02A9FE}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://leetcode.com/company/tesla/" xr:uid="{896E125C-5E5E-4614-A105-8769D09CF982}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://leetcode.com/company/doordash/" xr:uid="{3E987AF7-0C91-48B3-BD10-3C5ECE7E7105}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://leetcode.com/company/mathworks/" xr:uid="{4D9F47B1-CF81-40F7-BF14-7C992B171395}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://leetcode.com/company/morgan-stanley/" xr:uid="{2DC9B763-83D8-45FD-9172-107D277B07A3}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://leetcode.com/company/quora/" xr:uid="{1289E3C9-987C-41FA-BCB7-B39D6B1C4464}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://leetcode.com/company/sap/" xr:uid="{7FA89671-A35A-4C92-9BFF-FE7028CC4E66}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://leetcode.com/company/pinterest/" xr:uid="{81C4A999-3323-4AC3-97F5-537AA97A5332}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://leetcode.com/company/servicenow/" xr:uid="{292E2796-02D8-4541-81D2-3F424109E371}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://leetcode.com/company/square/" xr:uid="{85C9B695-AC0B-4541-9EAE-8E07DFD08162}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://leetcode.com/company/splunk/" xr:uid="{527A1B43-CA0B-4131-80E7-C389D8D59815}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://leetcode.com/company/capital-one/" xr:uid="{B6EA525F-006F-4BFE-8985-26762565C185}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://leetcode.com/company/citrix/" xr:uid="{6478BB1F-B285-4A08-9371-F7BA465DD2BD}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://leetcode.com/company/spotify/" xr:uid="{35A2D02E-F09C-4DA8-98F8-644176A29454}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://leetcode.com/company/wayfair/" xr:uid="{53743AB7-EFC9-4544-AA33-38A7CEE81474}"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://leetcode.com/company/yelp/" xr:uid="{4A8EF0CF-413F-4369-9708-78B4E5A0FB3C}"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://leetcode.com/company/robinhood/" xr:uid="{F0627235-4EAD-4C78-AA64-140BC4052149}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://leetcode.com/company/palantir-technologies/" xr:uid="{752C90E8-8592-4728-9EE3-B92065198087}"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://leetcode.com/company/shopee/" xr:uid="{1BC7A7D0-36FB-4B01-A60F-7B1E04321314}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://leetcode.com/company/tcs/" xr:uid="{07DDD26F-2823-4F86-907C-FEAB3A55066D}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://leetcode.com/company/akuna-capital/" xr:uid="{62133DAA-D159-4147-8C51-9DE9AF24A75E}"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://leetcode.com/company/grab/" xr:uid="{4EB605B1-9E38-4DC7-A050-F358013F6805}"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://leetcode.com/company/coupang/" xr:uid="{DFBD7FD0-E3E1-48B3-8AD9-ECF5E1B9931A}"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://leetcode.com/company/de-shaw/" xr:uid="{E1D093CC-1AF8-4B21-9FC3-10472FF59579}"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://leetcode.com/company/docusign/" xr:uid="{79CC7C3A-AEEF-4EC1-9CFF-9060F295A280}"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://leetcode.com/company/pocket-gems/" xr:uid="{2699A3B5-B75D-440E-A40B-1F010897C95B}"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://leetcode.com/company/databricks/" xr:uid="{551BD7E1-1EA7-4AC8-A9D0-E1269D10F60E}"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://leetcode.com/company/ibm/" xr:uid="{53621D87-1329-4CB1-A530-E723A81A64B4}"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://leetcode.com/company/dropbox/" xr:uid="{FFCF6CF7-14EC-48C2-9CCD-D3CF20E6D476}"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://leetcode.com/company/infosys/" xr:uid="{9BBF52E3-AAF5-41DA-B62E-3299A7CC7469}"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://leetcode.com/company/paytm/" xr:uid="{177D083F-8CD5-4F60-83D6-90F7003A0EF5}"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://leetcode.com/company/zenefits/" xr:uid="{EF5B6EB1-4B61-4560-9D0A-9650B87063FF}"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://leetcode.com/company/intel/" xr:uid="{2BD41FF0-9883-416A-A717-8352B9189EDE}"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://leetcode.com/company/audible/" xr:uid="{C8B90EF1-EA27-4720-A5D0-312ED7E5B483}"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://leetcode.com/company/huawei/" xr:uid="{4E93022F-C0D2-4624-A34D-339FEBB0D84E}"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://leetcode.com/company/qualcomm/" xr:uid="{AF457301-AF40-46AA-9E5B-14AC7F700269}"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://leetcode.com/company/rubrik/" xr:uid="{B3C3397E-F67E-4076-8BFD-3F8D458C29F1}"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://leetcode.com/company/tiktok/" xr:uid="{27F32557-22A3-4E10-950A-D0574C0C81F6}"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://leetcode.com/company/twitch/" xr:uid="{F4555FC3-1E65-440C-8B74-19E853F3DA31}"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://leetcode.com/company/twilio/" xr:uid="{727E77C4-C331-4000-8E22-15D3226A0008}"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://leetcode.com/company/two-sigma/" xr:uid="{39168956-997F-400C-9B0E-8D5DB725F10B}"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://leetcode.com/company/didi/" xr:uid="{8EA5FFD4-BD76-4AE3-945A-155B3532B8CC}"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://leetcode.com/company/swiggy/" xr:uid="{91A91CBB-DF60-451A-BF18-F857799D593F}"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://leetcode.com/company/accolite/" xr:uid="{4527ACC9-A2BE-4AD1-AE72-A0FBEE0DB41F}"/>
-    <hyperlink ref="A83" r:id="rId82" display="https://leetcode.com/company/cruise-automation/" xr:uid="{B8BC07BC-ABA5-4E16-9C80-7A8EB2BAC29C}"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://leetcode.com/company/factset/" xr:uid="{9F9E82FA-0467-4924-A0D9-D66D3DD2B368}"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://leetcode.com/company/tencent/" xr:uid="{14FDC781-DA55-4E10-B335-5376B3D8D32C}"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://leetcode.com/company/american-express/" xr:uid="{2BBFACFE-E0F7-4D9D-8B56-99935914B999}"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://leetcode.com/company/codenation/" xr:uid="{431201E5-1E10-47E7-92CE-16CC1A41C1F8}"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://leetcode.com/company/hulu/" xr:uid="{69230804-5A14-4C14-8091-D25C867A70DB}"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://leetcode.com/company/indeed/" xr:uid="{10BEE7E0-9F73-4A82-8D35-24D5C85AD2C6}"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://leetcode.com/company/karat/" xr:uid="{652A55E6-37DB-49D7-AECC-5CE082BB9280}"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://leetcode.com/company/dunzo/" xr:uid="{6A1E8965-3950-417C-A4AC-D591B48DAAC9}"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://leetcode.com/company/ixl/" xr:uid="{E973D865-3710-40DD-B6C8-FAA9783D5310}"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://leetcode.com/company/godaddy/" xr:uid="{043889A1-0953-49E1-B5D2-4639C34767A7}"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://leetcode.com/company/coursera/" xr:uid="{DC0B6C32-51E2-4023-978A-BC279BE0E1FB}"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://leetcode.com/company/netflix/" xr:uid="{00862528-75BD-4A0E-8BE4-68F8DFCEFA1F}"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://leetcode.com/company/baidu/" xr:uid="{D3A7D3E7-DEF1-4C34-A8FB-8B12DF329FC1}"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://leetcode.com/company/cloudera/" xr:uid="{C358A91B-2D9B-4198-9756-EA4AFC165583}"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://leetcode.com/company/houzz/" xr:uid="{D52639B7-129A-409B-9FCC-E6DA5B806EF6}"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://leetcode.com/company/medianet/" xr:uid="{F4D015A3-C201-427B-B52D-46670FF53043}"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://leetcode.com/company/reddit/" xr:uid="{23F59ADA-2070-4200-8420-3C60C2AAF654}"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://leetcode.com/company/tableau/" xr:uid="{508A6C83-4222-4C07-BB59-E6BF9122DC6B}"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://leetcode.com/company/zoho/" xr:uid="{9ED199B7-8E8B-4589-8123-B82647A41A56}"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://leetcode.com/company/appdynamics/" xr:uid="{EE46C39C-4F0D-4EC0-B3AF-209265C6B5E6}"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://leetcode.com/company/hbo/" xr:uid="{E309D2E4-14DB-4189-B90F-3A7F5BA63A52}"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://leetcode.com/company/asana/" xr:uid="{C5662C9C-F081-4150-851C-00BEA4F30574}"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://leetcode.com/company/c3-iot/" xr:uid="{C29AA466-EB12-45AE-B815-0E58629A53B6}"/>
-    <hyperlink ref="A107" r:id="rId106" display="https://leetcode.com/company/directi/" xr:uid="{EC7E7006-56D5-4EB8-9FC9-F983788DF681}"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://leetcode.com/company/ponyai/" xr:uid="{55776780-3185-466F-AA45-A4C17B6E83A9}"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://leetcode.com/company/postmates/" xr:uid="{18376A13-E50E-4E45-9C6B-384208F627FA}"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://leetcode.com/company/quip/" xr:uid="{C2421421-59DB-40EA-B162-69A36DE021DC}"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://leetcode.com/company/sprinklr/" xr:uid="{E44105A3-E0E6-469F-A9A2-D67AEE01B339}"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://leetcode.com/company/sumologic/" xr:uid="{5FF4D283-78DF-4B56-ADD2-8CB2F929C881}"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://leetcode.com/company/affirm/" xr:uid="{F528D8E6-B977-41C9-A565-CF9111ED70A2}"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://leetcode.com/company/alibaba/" xr:uid="{3F5C94F3-2393-43FA-9E67-975AF8410367}"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://leetcode.com/company/blackrock/" xr:uid="{629ACAC6-884C-460E-BE40-64B75947A40D}"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://leetcode.com/company/bolt/" xr:uid="{5E11E993-F9AA-48C6-BEE4-F91BDDC1F812}"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://leetcode.com/company/bookingcom/" xr:uid="{93BA230F-A3F6-4C7D-BCD1-5DF92FF78667}"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://leetcode.com/company/epic-systems/" xr:uid="{786814BF-682F-4972-AC0C-30B29A89907F}"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://leetcode.com/company/pure-storage/" xr:uid="{370968E6-5600-4F33-8B13-4AFF208546C5}"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://leetcode.com/company/arista-networks/" xr:uid="{682502E8-C9BB-43FC-BE75-E24B4862E54A}"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://leetcode.com/company/box/" xr:uid="{0283FF63-F2BC-44D9-BCAC-E0EF7119893C}"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://leetcode.com/company/deutsche-bank/" xr:uid="{4937FC6C-9970-40F5-86CF-CE5CB3A2ADCD}"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://leetcode.com/company/hotstar/" xr:uid="{19159440-13C2-4817-92EA-DA0DF0DD7DEC}"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://leetcode.com/company/hrt/" xr:uid="{E252D289-A1F9-4484-8BE2-FF558326EF8C}"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://leetcode.com/company/liveramp/" xr:uid="{78ECF099-EC67-4F98-882C-FE81A2BC0FC1}"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://leetcode.com/company/tripadvisor/" xr:uid="{1A7E8783-F1A3-42A9-9EAC-CE133EE5DF09}"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://leetcode.com/company/barclays/" xr:uid="{565510CE-E694-45FA-B165-B6C4192A1BC5}"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://leetcode.com/company/cohesity/" xr:uid="{E62B1654-477E-4341-BDF1-F87FDC570B10}"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://leetcode.com/company/groupon/" xr:uid="{DED58818-20DD-4913-85F6-3C78844E9C66}"/>
-    <hyperlink ref="A130" r:id="rId129" display="https://leetcode.com/company/gsn-games/" xr:uid="{10914C99-E7AA-43DD-AD35-A6F64CDFFC08}"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://leetcode.com/company/nagarro/" xr:uid="{5238FC28-DBA7-45C6-8C64-C98A602F221C}"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://leetcode.com/company/point72/" xr:uid="{4C1AC76A-2071-4C38-9831-9BFCB5A12410}"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://leetcode.com/company/poshmark/" xr:uid="{9CD39190-9E45-48F3-AC9B-8E6139CA8226}"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://leetcode.com/company/redfin/" xr:uid="{DF9E2F26-5619-49A2-B385-61C3D2D4F108}"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://leetcode.com/company/riot-games/" xr:uid="{6F1CF177-3D3F-4AE2-9EB0-800617277D51}"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://leetcode.com/company/virtu/" xr:uid="{7DAEF22D-65E8-4802-B0BF-69E6FBE4F512}"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://leetcode.com/company/zoom/" xr:uid="{CE69A9AC-7549-4C8F-BF87-DFFFFC53911A}"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://leetcode.com/company/zynga/" xr:uid="{A16A82C5-A3D0-43CB-8D08-736E957E936A}"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://leetcode.com/company/airtel/" xr:uid="{4CD1790D-0B6F-41E4-9738-FA0CF5516DF7}"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://leetcode.com/company/dataminr/" xr:uid="{6C0D295E-EAFC-41BF-A3AE-F8151F622A0E}"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://leetcode.com/company/makemytrip/" xr:uid="{1E1845DE-9E8E-4FEB-9591-90F25C5E9F89}"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://leetcode.com/company/mercari/" xr:uid="{F343288E-E08B-4391-9FF6-AB83FD5C2D75}"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://leetcode.com/company/opendoor/" xr:uid="{B7110624-BEC2-4C7C-8BEA-D8B4DC47D3F3}"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://leetcode.com/company/toptal/" xr:uid="{67C9FDA7-B796-4B46-A809-63A65C6CAAC2}"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://leetcode.com/company/works-applications/" xr:uid="{5502AE5C-24FE-433F-A0D4-01F9342974A0}"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://leetcode.com/company/zulily/" xr:uid="{CF864B2D-A195-44B4-B14B-23C0AC0D4E43}"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://leetcode.com/company/akamai/" xr:uid="{E8294B0D-1B2C-4345-8D62-0320C276D94B}"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://leetcode.com/company/alation/" xr:uid="{ACB2BE62-4094-4EF5-8AA0-A4260766BD7B}"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://leetcode.com/company/dell/" xr:uid="{A8E8E2C5-C755-4197-818E-28268A9DDD52}"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://leetcode.com/company/duolingo/" xr:uid="{437CA3F4-4AAD-412B-B53F-0E382E42B9B0}"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://leetcode.com/company/electronic-arts/" xr:uid="{B4162E35-5DAF-455F-BB59-79E52046F728}"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://leetcode.com/company/evernote/" xr:uid="{64DCBD35-2741-49E5-A628-FD230352A0F7}"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://leetcode.com/company/garena/" xr:uid="{5356E239-D329-45B9-B90B-B1642B77A40D}"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://leetcode.com/company/honeywell/" xr:uid="{6C546728-6705-47DB-93ED-3075616D2C3E}"/>
-    <hyperlink ref="A155" r:id="rId154" display="https://leetcode.com/company/jane-street/" xr:uid="{35BC8E66-EDCC-41B6-A1F9-5F586571134C}"/>
-    <hyperlink ref="A156" r:id="rId155" display="https://leetcode.com/company/maq-software/" xr:uid="{0FFC9658-BD92-4160-92B8-C6F07B150D24}"/>
-    <hyperlink ref="A157" r:id="rId156" display="https://leetcode.com/company/triplebyte/" xr:uid="{FFD1054E-B4F2-46B4-9F9E-E644DA972E4F}"/>
-    <hyperlink ref="A158" r:id="rId157" display="https://leetcode.com/company/united-health-group/" xr:uid="{0A109FB2-8415-4F26-A959-0C2830E8002C}"/>
-    <hyperlink ref="A159" r:id="rId158" display="https://leetcode.com/company/activision/" xr:uid="{584A9995-9D1B-4FD9-B198-E0ECF38846DB}"/>
-    <hyperlink ref="A160" r:id="rId159" display="https://leetcode.com/company/blizzard/" xr:uid="{8769F068-3E4F-4378-97CC-C6CABA4BDD7D}"/>
-    <hyperlink ref="A161" r:id="rId160" display="https://leetcode.com/company/c3ai/" xr:uid="{60FD721E-C66C-42DE-9B7D-21B2DBFF45E0}"/>
-    <hyperlink ref="A162" r:id="rId161" display="https://leetcode.com/company/endurance/" xr:uid="{847BEF0A-CADD-411A-981B-B9E9EA8CFE04}"/>
-    <hyperlink ref="A163" r:id="rId162" display="https://leetcode.com/company/fleetx/" xr:uid="{4E0063F3-F6BC-4D75-A3AA-D126856F83E2}"/>
-    <hyperlink ref="A164" r:id="rId163" display="https://leetcode.com/company/helix/" xr:uid="{584E0059-DB03-493F-B078-54D1F35DE312}"/>
-    <hyperlink ref="A165" r:id="rId164" display="https://leetcode.com/company/inmobi/" xr:uid="{807854EB-92E0-454C-BEA3-BE376D6B69CB}"/>
-    <hyperlink ref="A166" r:id="rId165" display="https://leetcode.com/company/jp-morgan/" xr:uid="{5A39C6CD-4F3E-41A6-9334-3A1E72943FE3}"/>
-    <hyperlink ref="A167" r:id="rId166" display="https://leetcode.com/company/lending-club/" xr:uid="{04C3E8E8-57B8-4B82-BE36-70FE6F2C77EA}"/>
-    <hyperlink ref="A168" r:id="rId167" display="https://leetcode.com/company/machine-zone/" xr:uid="{E0577BE8-71A8-4659-AAAD-E98FF32B28CF}"/>
-    <hyperlink ref="A169" r:id="rId168" display="https://leetcode.com/company/mindtickle/" xr:uid="{F79F00AA-70D6-47F5-97E9-94BD00087FF5}"/>
-    <hyperlink ref="A170" r:id="rId169" display="https://leetcode.com/company/netease/" xr:uid="{6D9B5974-3FC0-48BF-8C08-6BB11C3BD9A5}"/>
-    <hyperlink ref="A171" r:id="rId170" display="https://leetcode.com/company/netsuite/" xr:uid="{DB44309A-61AD-495D-BBD8-A53D13DDF817}"/>
-    <hyperlink ref="A172" r:id="rId171" display="https://leetcode.com/company/peak6/" xr:uid="{18980FA7-7D3F-44A3-96A3-1D1F33D3CCD7}"/>
-    <hyperlink ref="A173" r:id="rId172" display="https://leetcode.com/company/soundhound/" xr:uid="{9DD5997E-B1EB-4215-9E46-9C96DFD50324}"/>
-    <hyperlink ref="A174" r:id="rId173" display="https://leetcode.com/company/startup/" xr:uid="{42B9757B-A9A0-40BC-B57B-020597AF6A69}"/>
-    <hyperlink ref="A175" r:id="rId174" display="https://leetcode.com/company/turvo/" xr:uid="{DC175352-164C-4446-81DF-6D79DF99E9BA}"/>
-    <hyperlink ref="A176" r:id="rId175" display="https://leetcode.com/company/uipath/" xr:uid="{CF8CBCBD-BEC6-4DD3-A8D9-F5DF7D504679}"/>
-    <hyperlink ref="A177" r:id="rId176" display="https://leetcode.com/company/vimeo/" xr:uid="{66AE2FE7-5F3E-46FF-9909-1D48B0AAE8F6}"/>
-    <hyperlink ref="A178" r:id="rId177" display="https://leetcode.com/company/zappos/" xr:uid="{5FCF0615-3CAC-45C4-B905-F6F76F17686B}"/>
-    <hyperlink ref="A179" r:id="rId178" display="https://leetcode.com/company/23me/" xr:uid="{0B1E4AB8-DD5B-4159-B4E2-0078ACDE7F45}"/>
-    <hyperlink ref="A180" r:id="rId179" display="https://leetcode.com/company/activevideo/" xr:uid="{B6A83A99-8B5C-4613-9881-F6469CFB8D3F}"/>
-    <hyperlink ref="A181" r:id="rId180" display="https://leetcode.com/company/aetion/" xr:uid="{2DAC696F-A81C-42E4-9D42-108DCBF073D6}"/>
-    <hyperlink ref="A182" r:id="rId181" display="https://leetcode.com/company/affinity/" xr:uid="{D981D74A-7540-4076-ACF4-A6A9341853F5}"/>
-    <hyperlink ref="A183" r:id="rId182" display="https://leetcode.com/company/ajira/" xr:uid="{FE43F2AB-C040-46E1-8ED4-E65A5415042F}"/>
-    <hyperlink ref="A184" r:id="rId183" display="https://leetcode.com/company/akuna/" xr:uid="{BB6C8346-F318-4680-A0D3-BC3517E69EB5}"/>
-    <hyperlink ref="A185" r:id="rId184" display="https://leetcode.com/company/allincall/" xr:uid="{3050066E-1374-4790-9E55-168F1B0ADB2A}"/>
-    <hyperlink ref="A186" r:id="rId185" display="https://leetcode.com/company/alphonso/" xr:uid="{ECC8487E-A438-4076-827D-B9C23A67756D}"/>
-    <hyperlink ref="A187" r:id="rId186" display="https://leetcode.com/company/apt-portfolio/" xr:uid="{ADB77633-A3B4-47DF-B727-F179CBF4DD1D}"/>
-    <hyperlink ref="A188" r:id="rId187" display="https://leetcode.com/company/aqr-capital-management-llc/" xr:uid="{6DB98B26-0FA8-40D1-A26C-20BE33086533}"/>
-    <hyperlink ref="A189" r:id="rId188" display="https://leetcode.com/company/arcesium/" xr:uid="{DB134D4A-CCD7-4D51-BE76-9CDBF13E1050}"/>
-    <hyperlink ref="A190" r:id="rId189" display="https://leetcode.com/company/arista/" xr:uid="{FE258048-9485-4C75-AD43-476E26AA33A1}"/>
-    <hyperlink ref="A191" r:id="rId190" display="https://leetcode.com/company/bloomreach/" xr:uid="{76C5F25D-C9C8-4644-8993-EC41D299ED23}"/>
-    <hyperlink ref="A192" r:id="rId191" display="https://leetcode.com/company/bny-mellon/" xr:uid="{DF4A1424-8A96-455B-80B7-3054189C80E0}"/>
-    <hyperlink ref="A193" r:id="rId192" display="https://leetcode.com/company/booking/" xr:uid="{8F052664-5702-4167-8D67-EB2D869C5E51}"/>
-    <hyperlink ref="A194" r:id="rId193" display="https://leetcode.com/company/brillio/" xr:uid="{40BFCD1D-79E0-4263-96FE-9F409A0907FA}"/>
-    <hyperlink ref="A195" r:id="rId194" display="https://leetcode.com/company/bytedancetoutiao/" xr:uid="{10B4BE75-B0FE-41AA-AC62-F7E867723838}"/>
-    <hyperlink ref="A196" r:id="rId195" display="https://leetcode.com/company/casaone/" xr:uid="{EC715AB3-7C21-4BDE-B937-686357CD1FA1}"/>
-    <hyperlink ref="A197" r:id="rId196" display="https://leetcode.com/company/cashfree/" xr:uid="{F4E58343-D255-4D81-98B4-C1D57A65A84E}"/>
-    <hyperlink ref="A198" r:id="rId197" display="https://leetcode.com/company/clari/" xr:uid="{09012AFE-BFF5-4F02-9D80-836E1B273EFD}"/>
-    <hyperlink ref="A199" r:id="rId198" display="https://leetcode.com/company/clutter/" xr:uid="{4E6217A5-B41C-4717-B026-0EB7192668BD}"/>
-    <hyperlink ref="A200" r:id="rId199" display="https://leetcode.com/company/codeagon/" xr:uid="{C64484B3-CFD8-4FE6-A46A-F43B33C3FFEC}"/>
-    <hyperlink ref="A201" r:id="rId200" display="https://leetcode.com/company/coderbyte/" xr:uid="{6B2BFCE9-2650-4031-879D-9514092CC2B8}"/>
-    <hyperlink ref="A202" r:id="rId201" display="https://leetcode.com/company/codesignal/" xr:uid="{BEE3720A-2A00-48FC-A086-8F7CD63C4579}"/>
-    <hyperlink ref="A203" r:id="rId202" display="https://leetcode.com/company/curefit/" xr:uid="{3819DDAA-6A82-4C3E-96C7-4CA0B53E0947}"/>
-    <hyperlink ref="A204" r:id="rId203" display="https://leetcode.com/company/deliveryhero/" xr:uid="{922FBB1F-7B16-4124-8369-112505E767C6}"/>
-    <hyperlink ref="A205" r:id="rId204" display="https://leetcode.com/company/dji/" xr:uid="{4D35B32F-6583-4560-83DC-E7E5BDE25CAE}"/>
-    <hyperlink ref="A206" r:id="rId205" display="https://leetcode.com/company/dosh/" xr:uid="{A782D113-EA4D-486A-B880-E430EBFA7578}"/>
-    <hyperlink ref="A207" r:id="rId206" display="https://leetcode.com/company/drawbridge/" xr:uid="{E3CC8DF0-6339-40E5-8AA0-508C135CBC38}"/>
-    <hyperlink ref="A208" r:id="rId207" display="https://leetcode.com/company/dream11/" xr:uid="{03E6F6BF-3E10-41C1-B56A-2874B7544288}"/>
-    <hyperlink ref="A209" r:id="rId208" display="https://leetcode.com/company/druva/" xr:uid="{7DF2E251-E102-4EC7-B495-4793E7A6FD84}"/>
-    <hyperlink ref="A210" r:id="rId209" display="https://leetcode.com/company/drw/" xr:uid="{51DE8B59-4AF6-4A74-946C-E0D39A8655F3}"/>
-    <hyperlink ref="A211" r:id="rId210" display="https://leetcode.com/company/edabit/" xr:uid="{2CE97A82-8066-432A-A969-371AF00BF83A}"/>
-    <hyperlink ref="A212" r:id="rId211" display="https://leetcode.com/company/f5-networks/" xr:uid="{50F5EF8F-719D-4719-84C8-12F052594086}"/>
-    <hyperlink ref="A213" r:id="rId212" display="https://leetcode.com/company/fallible/" xr:uid="{8307CDC9-EAB5-465F-ACE0-3E1B94B994EC}"/>
-    <hyperlink ref="A214" r:id="rId213" display="https://leetcode.com/company/fidessa/" xr:uid="{78C9AFE2-F3F3-42C7-8905-26DE0D22EB65}"/>
-    <hyperlink ref="A215" r:id="rId214" display="https://leetcode.com/company/flexport/" xr:uid="{F928A356-B824-4E04-B8B0-B648753DF3B5}"/>
-    <hyperlink ref="A216" r:id="rId215" display="https://leetcode.com/company/forusall/" xr:uid="{D07087E8-D39D-4EA3-8DD2-3EF795C67F8F}"/>
-    <hyperlink ref="A217" r:id="rId216" display="https://leetcode.com/company/ge-digital/" xr:uid="{D359DEBF-30F9-445B-9A79-AE89853CC65D}"/>
-    <hyperlink ref="A218" r:id="rId217" display="https://leetcode.com/company/ge-healthcare/" xr:uid="{D5B82574-1D45-48E4-9976-ED37AD01B970}"/>
-    <hyperlink ref="A219" r:id="rId218" display="https://leetcode.com/company/general-electric/" xr:uid="{2E030C5C-31E9-4753-991D-50814BD70258}"/>
-    <hyperlink ref="A220" r:id="rId219" display="https://leetcode.com/company/gilt-groupe/" xr:uid="{E8F23603-4B69-4947-A48E-79EAFEA44941}"/>
-    <hyperlink ref="A221" r:id="rId220" display="https://leetcode.com/company/hackerrank/" xr:uid="{CF1067D5-AD9D-42F8-B300-8DF1D1F6C25F}"/>
-    <hyperlink ref="A222" r:id="rId221" display="https://leetcode.com/company/heavywater/" xr:uid="{4D1E80E8-A01A-4285-96A7-BEAAF7F2DA8F}"/>
-    <hyperlink ref="A223" r:id="rId222" display="https://leetcode.com/company/honey/" xr:uid="{BED1EFB3-50C0-4DB9-93F8-AC772DCC170E}"/>
-    <hyperlink ref="A224" r:id="rId223" display="https://leetcode.com/company/huwaei/" xr:uid="{D0C84C97-B09D-486B-9968-29819987D61B}"/>
-    <hyperlink ref="A225" r:id="rId224" display="https://leetcode.com/company/iit-bombay/" xr:uid="{03089FCB-4928-4776-8D53-1D1422EA1875}"/>
-    <hyperlink ref="A226" r:id="rId225" display="https://leetcode.com/company/instagram/" xr:uid="{825DA821-3BE2-4737-A999-C81CDAEB23F4}"/>
-    <hyperlink ref="A227" r:id="rId226" display="https://leetcode.com/company/jingchi/" xr:uid="{B4E23391-0821-4A1C-B28F-C6643CF4EB9B}"/>
-    <hyperlink ref="A228" r:id="rId227" display="https://leetcode.com/company/jp-morgan-chase/" xr:uid="{80A0BF08-8778-49F6-A54B-E1EFB3DCA2C2}"/>
-    <hyperlink ref="A229" r:id="rId228" display="https://leetcode.com/company/jump-trading/" xr:uid="{2780032D-CCD6-4015-A5BF-67F63A004506}"/>
-    <hyperlink ref="A230" r:id="rId229" display="https://leetcode.com/company/kakao/" xr:uid="{605D5ACB-8FB9-44C5-A977-D16B07DAC594}"/>
-    <hyperlink ref="A231" r:id="rId230" display="https://leetcode.com/company/leap-motion/" xr:uid="{8C77E9EA-B0C3-4371-9C92-4218FD07A41E}"/>
-    <hyperlink ref="A232" r:id="rId231" display="https://leetcode.com/company/lendingkart/" xr:uid="{ED2ADE64-7F24-46CB-A698-C13C30FF410A}"/>
-    <hyperlink ref="A233" r:id="rId232" display="https://leetcode.com/company/limebike/" xr:uid="{38B0E40C-19B7-4714-8D56-27980CB3EBF1}"/>
-    <hyperlink ref="A234" r:id="rId233" display="https://leetcode.com/company/lucid/" xr:uid="{DE297A60-3BCD-43C1-B0BE-B89655A63A2B}"/>
-    <hyperlink ref="A235" r:id="rId234" display="https://leetcode.com/company/machinezone/" xr:uid="{7C18658A-BC35-4B90-89FE-68A64E6B9318}"/>
-    <hyperlink ref="A236" r:id="rId235" display="https://leetcode.com/company/mapbox/" xr:uid="{407C4AC0-6ACC-42C9-9920-7E27D28651BA}"/>
-    <hyperlink ref="A237" r:id="rId236" display="https://leetcode.com/company/mckinsey/" xr:uid="{E84F2997-08B1-4ADB-9FC7-9E80D0FC643B}"/>
-    <hyperlink ref="A238" r:id="rId237" display="https://leetcode.com/company/microstrategy/" xr:uid="{FF7FE033-8BD5-4BD0-A170-00E40CD31DC1}"/>
-    <hyperlink ref="A239" r:id="rId238" display="https://leetcode.com/company/mobisy/" xr:uid="{64096898-85B7-47B4-8D32-282CD57652F1}"/>
-    <hyperlink ref="A240" r:id="rId239" display="https://leetcode.com/company/moengage/" xr:uid="{7B9CEAC8-9EB3-42DE-8094-DA2CE9BA217E}"/>
-    <hyperlink ref="A241" r:id="rId240" display="https://leetcode.com/company/national-instruments/" xr:uid="{D0DEE97E-1BEB-4BBB-964B-DB36CB68466C}"/>
-    <hyperlink ref="A242" r:id="rId241" display="https://leetcode.com/company/nerdwallet/" xr:uid="{DB0955D5-CDCF-40E6-A62B-A15F6A626E75}"/>
-    <hyperlink ref="A243" r:id="rId242" display="https://leetcode.com/company/nira-finance/" xr:uid="{6A44DC90-CD2C-4871-B86E-B7595C7650D3}"/>
-    <hyperlink ref="A244" r:id="rId243" display="https://leetcode.com/company/nuro/" xr:uid="{4A170BA3-72AE-4625-84A0-F366768014C7}"/>
-    <hyperlink ref="A245" r:id="rId244" display="https://leetcode.com/company/oasis-labs/" xr:uid="{6319D7A1-0D4A-412B-9172-D8B3E1862826}"/>
-    <hyperlink ref="A246" r:id="rId245" display="https://leetcode.com/company/optum/" xr:uid="{8E38E7B4-ED16-4C24-AEDC-C5FBAAE2B20F}"/>
-    <hyperlink ref="A247" r:id="rId246" display="https://leetcode.com/company/ot/" xr:uid="{DDC64E56-0619-4EBC-84ED-02E4B7E73BAD}"/>
-    <hyperlink ref="A248" r:id="rId247" display="https://leetcode.com/company/phonepe/" xr:uid="{456C1155-16DC-4F90-836C-67AB424B8113}"/>
-    <hyperlink ref="A249" r:id="rId248" display="https://leetcode.com/company/postman/" xr:uid="{37FE3FEF-8E23-46D4-9083-D3C7DA25A3ED}"/>
-    <hyperlink ref="A250" r:id="rId249" display="https://leetcode.com/company/poynt/" xr:uid="{7568E529-9040-4A98-BCB8-05D41E849518}"/>
-    <hyperlink ref="A251" r:id="rId250" display="https://leetcode.com/company/pramp/" xr:uid="{268CE447-5DD4-4ADD-A0D4-BE800FBE4B78}"/>
-    <hyperlink ref="A252" r:id="rId251" display="https://leetcode.com/company/quble/" xr:uid="{1097B4CD-E23A-42FD-8F49-BED9B1A2D9CD}"/>
-    <hyperlink ref="A253" r:id="rId252" display="https://leetcode.com/company/quince/" xr:uid="{6D3A323B-CBF3-4397-A5DA-1FD5A53EF224}"/>
-    <hyperlink ref="A254" r:id="rId253" display="https://leetcode.com/company/rackspace/" xr:uid="{710CA2B6-99BF-4BA1-A04F-67F56DB926AF}"/>
-    <hyperlink ref="A255" r:id="rId254" display="https://leetcode.com/company/radius/" xr:uid="{93AA55BC-6DAD-4FEA-AF78-6E21A8519FE9}"/>
-    <hyperlink ref="A256" r:id="rId255" display="https://leetcode.com/company/rakuten/" xr:uid="{1591BFFF-A08C-49F0-B284-D389B53F5804}"/>
-    <hyperlink ref="A257" r:id="rId256" display="https://leetcode.com/company/rupeek/" xr:uid="{AB16B6D9-2195-4E1D-9768-714144B94AB3}"/>
-    <hyperlink ref="A258" r:id="rId257" display="https://leetcode.com/company/sambanova/" xr:uid="{11F86ADE-0AD0-4148-99E0-0CD0DDA63813}"/>
-    <hyperlink ref="A259" r:id="rId258" display="https://leetcode.com/company/sapient/" xr:uid="{E6B04E1F-88E6-412E-92F2-C463EB6930F5}"/>
-    <hyperlink ref="A260" r:id="rId259" display="https://leetcode.com/company/snapdeal/" xr:uid="{5A7DACD5-D93A-4AD0-9724-AB49F8E21440}"/>
-    <hyperlink ref="A261" r:id="rId260" display="https://leetcode.com/company/societe-generale/" xr:uid="{7E9A117F-EC14-4323-A2BB-8EF97BDFD022}"/>
-    <hyperlink ref="A262" r:id="rId261" display="https://leetcode.com/company/softwire/" xr:uid="{C0A03E3B-C17E-4047-A93E-3E14912C5FC5}"/>
-    <hyperlink ref="A263" r:id="rId262" display="https://leetcode.com/company/sumerge/" xr:uid="{2C859FF4-D744-4769-A050-40D415287FA8}"/>
-    <hyperlink ref="A264" r:id="rId263" display="https://leetcode.com/company/tandemg/" xr:uid="{07265CAE-DAAD-423B-9C49-2869B7D35C04}"/>
-    <hyperlink ref="A265" r:id="rId264" display="https://leetcode.com/company/thomson-reuters/" xr:uid="{A431EA2F-410C-4AA8-A9F4-DC45C790A1B0}"/>
-    <hyperlink ref="A266" r:id="rId265" display="https://leetcode.com/company/thumbtack/" xr:uid="{77633881-FCB0-4284-B802-FD175E7F7AE8}"/>
-    <hyperlink ref="A267" r:id="rId266" display="https://leetcode.com/company/traveloka/" xr:uid="{281E7A32-3F0C-4524-896E-2ADF030529F3}"/>
-    <hyperlink ref="A268" r:id="rId267" display="https://leetcode.com/company/trexquant/" xr:uid="{CAD8BF2E-091A-4BBA-91A6-68C12F0E23A5}"/>
-    <hyperlink ref="A269" r:id="rId268" display="https://leetcode.com/company/tsys/" xr:uid="{37707C95-6C5A-4975-B7D0-BF86C17C72AB}"/>
-    <hyperlink ref="A270" r:id="rId269" display="https://leetcode.com/company/unacademy/" xr:uid="{D86C1AB1-3A86-46CD-A065-F8A694330B72}"/>
-    <hyperlink ref="A271" r:id="rId270" display="https://leetcode.com/company/valve/" xr:uid="{EF7E6DC5-C683-45CD-AEA7-3B0008EA33D5}"/>
-    <hyperlink ref="A272" r:id="rId271" display="https://leetcode.com/company/walmart/" xr:uid="{F6F7DFCA-2E1D-4100-84BD-751E54D2E489}"/>
-    <hyperlink ref="A273" r:id="rId272" display="https://leetcode.com/company/whole-foods-market/" xr:uid="{28DF26AA-B646-4109-8104-855EFBB43F71}"/>
-    <hyperlink ref="A274" r:id="rId273" display="https://leetcode.com/company/xing/" xr:uid="{084C1853-99B9-475C-B19C-670EC8AB9DEB}"/>
-    <hyperlink ref="A275" r:id="rId274" display="https://leetcode.com/company/yatra/" xr:uid="{D054C28F-76E7-4AAB-A9FA-CA85D6274A6B}"/>
-    <hyperlink ref="A276" r:id="rId275" display="https://leetcode.com/company/zalando/" xr:uid="{AB4E674D-157F-448E-8C2A-FF8FAA8A49B0}"/>
-    <hyperlink ref="A277" r:id="rId276" display="https://leetcode.com/company/zscaler/" xr:uid="{DF80D731-F84D-4E87-BFC5-FDAC2FE26B03}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A754CEF9-383C-4612-AD5B-42757CF83E4B}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{D64391E3-C977-4D78-8C65-C6B6EC67A6E5}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{F390406A-5D74-4284-82BC-82756E4F2C6C}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{080D6388-A072-4D90-8345-251728BF46F2}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{BCB9D62F-A7E0-40EC-AF7C-668AF439089A}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{C3817274-50A1-48E3-9BA5-D6F215DE0336}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{455D64B0-3C59-496C-8160-DE040D609438}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{1658D7E3-5231-472C-B03D-3420DC9311D3}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{7084CB5F-B743-41C1-BCFD-327ECAD90265}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{1AA7F1FE-5A78-4E3A-BFEC-2510A3AD9444}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{07EB29CB-409E-453C-8A86-2A49F1012CB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId277"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/DSA/DataStructure.xlsx
+++ b/DSA/DataStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinan\source\Skills\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F48C93-4978-4123-8261-0CD8572CAF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA208E8-2FB5-495B-A076-DCB267840495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CE0D493-FE65-4A50-B951-6C1FCDBD178F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0CE0D493-FE65-4A50-B951-6C1FCDBD178F}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
@@ -8100,7 +8100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAFDC4A-8E64-4267-A273-4387D527AC00}">
   <dimension ref="A1:AX2112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A1011" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M3" sqref="A3:XFD3"/>
     </sheetView>
@@ -40402,8 +40402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A65379-A433-4C35-8C5E-028905F9DE24}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40492,7 +40492,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>2404</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -40501,7 +40501,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>2405</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -40510,7 +40510,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="20" t="s">
         <v>2406</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -40519,7 +40519,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="20" t="s">
         <v>2407</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -40528,7 +40528,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="20" t="s">
         <v>2408</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -40540,7 +40540,7 @@
       <c r="E10" s="4" t="s">
         <v>2281</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="20" t="s">
         <v>2409</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -40549,7 +40549,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="20" t="s">
         <v>2410</v>
       </c>
       <c r="G11" s="4" t="s">
